--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>TAPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,244 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
       </c>
       <c r="G8" s="3">
+        <v>800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>500</v>
       </c>
       <c r="O10" s="3">
         <v>500</v>
       </c>
       <c r="P10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>500</v>
+      </c>
+      <c r="R10" s="3">
+        <v>500</v>
+      </c>
+      <c r="S10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +919,64 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1019,17 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,29 +1042,29 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>800</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1013,19 +1072,28 @@
       <c r="P14" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -1034,20 +1102,20 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>200</v>
-      </c>
       <c r="N15" s="3">
         <v>200</v>
       </c>
@@ -1057,8 +1125,17 @@
       <c r="P15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1149,117 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1300</v>
       </c>
       <c r="J17" s="3">
         <v>1500</v>
       </c>
       <c r="K17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,19 +1276,22 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1202,83 +1303,101 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-200</v>
       </c>
       <c r="O20" s="3">
         <v>-200</v>
       </c>
       <c r="P20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1290,16 +1409,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1310,60 +1429,78 @@
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-900</v>
       </c>
       <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>10</v>
@@ -1374,8 +1511,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1398,8 +1535,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1588,123 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-900</v>
       </c>
       <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-900</v>
       </c>
       <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1747,17 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1800,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,19 +1906,28 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1730,72 +1939,90 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>200</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
+        <v>200</v>
+      </c>
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
-        <v>200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>200</v>
+      </c>
+      <c r="S32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-600</v>
       </c>
       <c r="J33" s="3">
         <v>-900</v>
       </c>
       <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2065,128 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-600</v>
       </c>
       <c r="J35" s="3">
         <v>-900</v>
       </c>
       <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2224,64 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>200</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,37 +2324,46 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
-        <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
-      </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -2099,8 +2377,17 @@
       <c r="P43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,29 +2430,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>200</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
@@ -2176,74 +2472,92 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2275,28 +2589,37 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
-        <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2319,52 +2642,70 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>800</v>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
       </c>
       <c r="H49" s="3">
+        <v>800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>1300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>1300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>1300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>1200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,19 +2801,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2495,8 +2854,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2907,70 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>3200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,69 +3008,81 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2689,114 +3090,141 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
-        <v>200</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="J59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
       <c r="M59" s="3">
+        <v>500</v>
+      </c>
+      <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3">
         <v>700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2828,30 +3256,39 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
+      <c r="D62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -2859,14 +3296,14 @@
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
+      <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>300</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
@@ -2874,17 +3311,26 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3479,70 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1100</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
       </c>
       <c r="I66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K66" s="3">
+        <v>900</v>
+      </c>
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3659,17 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3765,70 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3">
         <v>-12500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-11900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-11600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-11000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-9400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-7200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-6700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-4800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-4300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3977,70 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4083,128 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-600</v>
       </c>
       <c r="J81" s="3">
         <v>-900</v>
       </c>
       <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +4221,22 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3649,20 +4245,20 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
-      </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
@@ -3672,8 +4268,17 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4533,70 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>200</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
+        <v>200</v>
+      </c>
+      <c r="S89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4613,11 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,8 +4630,8 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -3977,29 +4639,38 @@
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,28 +4766,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -4122,16 +4811,25 @@
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4846,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4893,17 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,40 +5052,49 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -4368,8 +5105,17 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +5158,66 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>-300</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TAPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,84 +758,90 @@
         <v>1200</v>
       </c>
       <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1300</v>
       </c>
       <c r="I8" s="3">
         <v>800</v>
       </c>
       <c r="J8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>800</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>600</v>
       </c>
       <c r="Q8" s="3">
         <v>800</v>
       </c>
       <c r="R8" s="3">
+        <v>600</v>
+      </c>
+      <c r="S8" s="3">
+        <v>800</v>
+      </c>
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
+      <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
@@ -837,7 +850,7 @@
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -846,33 +859,39 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
+      <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>800</v>
       </c>
       <c r="G10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H10" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I10" s="3">
         <v>500</v>
       </c>
       <c r="J10" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K10" s="3">
         <v>500</v>
@@ -881,28 +900,34 @@
         <v>400</v>
       </c>
       <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>400</v>
       </c>
       <c r="Q10" s="3">
         <v>500</v>
       </c>
       <c r="R10" s="3">
+        <v>400</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>500</v>
+      </c>
+      <c r="U10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,28 +947,30 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -952,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,13 +1061,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1045,58 +1084,64 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="H14" s="3">
+        <v>100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1111,16 +1156,16 @@
         <v>200</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+      <c r="U15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1100</v>
       </c>
       <c r="G17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1700</v>
       </c>
       <c r="Q17" s="3">
         <v>1000</v>
       </c>
       <c r="R17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,19 +1344,21 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1312,92 +1379,104 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-600</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
       </c>
       <c r="R20" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="S20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>200</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1418,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1438,88 +1517,100 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>10</v>
+      <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,19 +2048,25 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1948,81 +2087,93 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>200</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>200</v>
+      </c>
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>200</v>
-      </c>
       <c r="S32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
+      <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
-        <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,43 +2512,49 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
+      <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
-        <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
@@ -2386,8 +2571,14 @@
       <c r="S43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,19 +2630,25 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -2460,14 +2657,14 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
@@ -2481,83 +2678,95 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>10</v>
+      <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>800</v>
       </c>
       <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2598,19 +2807,25 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>10</v>
+      <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2619,13 +2834,13 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2651,61 +2866,73 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
+      <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>800</v>
       </c>
       <c r="G49" s="3">
+        <v>800</v>
+      </c>
+      <c r="H49" s="3">
+        <v>700</v>
+      </c>
+      <c r="I49" s="3">
         <v>900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1300</v>
       </c>
       <c r="Q49" s="3">
         <v>1300</v>
       </c>
       <c r="R49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T49" s="3">
         <v>1200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +3043,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>10</v>
+      <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1800</v>
       </c>
       <c r="G54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>2200</v>
       </c>
       <c r="S54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,28 +3270,30 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>10</v>
+      <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3041,190 +3302,214 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
-        <v>200</v>
-      </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>10</v>
+      <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>10</v>
+      <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1300</v>
       </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
+        <v>600</v>
+      </c>
+      <c r="O60" s="3">
+        <v>600</v>
+      </c>
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3265,51 +3550,57 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
+      <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
+      <c r="L62" s="3">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>300</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
@@ -3320,17 +3611,23 @@
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>10</v>
+      <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1500</v>
       </c>
       <c r="G66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1500</v>
       </c>
       <c r="R66" s="3">
         <v>1100</v>
       </c>
       <c r="S66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-13600</v>
       </c>
       <c r="G72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-12500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>300</v>
       </c>
       <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>300</v>
+      </c>
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,22 +4619,24 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
+      <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4254,16 +4651,16 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
+      <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
       <c r="P89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>200</v>
-      </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>200</v>
+      </c>
+      <c r="U89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,28 +5055,30 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4645,32 +5086,38 @@
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,19 +5228,25 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
+      <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
@@ -4796,13 +5255,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>-200</v>
-      </c>
       <c r="K94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -4820,16 +5279,22 @@
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,25 +5546,31 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5088,34 +5579,40 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5664,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>10</v>
+      <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
       <c r="P102" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,87 +768,90 @@
         <v>1200</v>
       </c>
       <c r="G8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H8" s="3">
         <v>900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>800</v>
       </c>
       <c r="I8" s="3">
         <v>800</v>
       </c>
       <c r="J8" s="3">
+        <v>800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
       </c>
       <c r="N8" s="3">
         <v>700</v>
       </c>
       <c r="O8" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="P8" s="3">
         <v>900</v>
       </c>
       <c r="Q8" s="3">
+        <v>900</v>
+      </c>
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
       </c>
       <c r="G9" s="3">
+        <v>400</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
@@ -856,78 +863,84 @@
         <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
-        <v>200</v>
-      </c>
       <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
-      </c>
-      <c r="E10" s="3">
-        <v>800</v>
       </c>
       <c r="F10" s="3">
         <v>800</v>
       </c>
       <c r="G10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H10" s="3">
         <v>600</v>
       </c>
       <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>600</v>
       </c>
       <c r="P10" s="3">
         <v>600</v>
       </c>
       <c r="Q10" s="3">
+        <v>600</v>
+      </c>
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>500</v>
       </c>
       <c r="T10" s="3">
         <v>500</v>
       </c>
       <c r="U10" s="3">
+        <v>500</v>
+      </c>
+      <c r="V10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,7 +987,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -985,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -994,7 +1008,7 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1084,11 +1104,11 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1096,38 +1116,41 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1167,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1162,13 +1185,13 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,99 +1231,103 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1100</v>
       </c>
       <c r="F17" s="3">
         <v>1100</v>
       </c>
       <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1500</v>
       </c>
       <c r="L17" s="3">
         <v>1500</v>
       </c>
       <c r="M17" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="N17" s="3">
         <v>1300</v>
       </c>
       <c r="O17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-600</v>
       </c>
       <c r="N18" s="3">
         <v>-600</v>
@@ -1306,25 +1336,28 @@
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1385,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-200</v>
       </c>
       <c r="T20" s="3">
         <v>-200</v>
@@ -1405,67 +1439,73 @@
       <c r="U20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>200</v>
-      </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
       <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
       </c>
       <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1503,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-600</v>
       </c>
       <c r="N23" s="3">
         <v>-600</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1608,12 +1654,12 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-600</v>
       </c>
       <c r="N26" s="3">
         <v>-600</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-600</v>
       </c>
       <c r="N27" s="3">
         <v>-600</v>
       </c>
       <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2093,87 +2163,93 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>200</v>
-      </c>
       <c r="R32" s="3">
+        <v>200</v>
+      </c>
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
-        <v>200</v>
-      </c>
       <c r="T32" s="3">
         <v>200</v>
       </c>
       <c r="U32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-600</v>
       </c>
       <c r="N33" s="3">
         <v>-600</v>
       </c>
       <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-600</v>
       </c>
       <c r="N35" s="3">
         <v>-600</v>
       </c>
       <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
-        <v>200</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,38 +2608,41 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
-        <v>200</v>
-      </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
@@ -2557,7 +2650,7 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,16 +2732,19 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -2654,20 +2753,20 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
@@ -2684,7 +2783,7 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2693,69 +2792,75 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
       </c>
       <c r="F46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,13 +2918,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2840,10 +2948,10 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2872,52 +2980,55 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>800</v>
       </c>
       <c r="G49" s="3">
         <v>800</v>
       </c>
       <c r="H49" s="3">
+        <v>800</v>
+      </c>
+      <c r="I49" s="3">
         <v>700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>800</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
       </c>
       <c r="L49" s="3">
+        <v>800</v>
+      </c>
+      <c r="M49" s="3">
         <v>900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1200</v>
       </c>
       <c r="N49" s="3">
         <v>1200</v>
       </c>
       <c r="O49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P49" s="3">
         <v>1100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1300</v>
       </c>
       <c r="R49" s="3">
         <v>1300</v>
@@ -2926,13 +3037,16 @@
         <v>1300</v>
       </c>
       <c r="T49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U49" s="3">
         <v>1200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,13 +3166,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,58 +3290,61 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2200</v>
       </c>
       <c r="T54" s="3">
         <v>2200</v>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3287,7 +3418,7 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3296,7 +3427,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3308,181 +3439,190 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
       <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
-        <v>200</v>
-      </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
       </c>
       <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
@@ -3491,25 +3631,28 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3556,33 +3699,36 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>600</v>
       </c>
       <c r="T61" s="3">
+        <v>600</v>
+      </c>
+      <c r="U61" s="3">
         <v>500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3591,19 +3737,19 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
         <v>300</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>10</v>
@@ -3617,8 +3763,8 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3815,55 +3973,58 @@
         <v>1200</v>
       </c>
       <c r="F66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-13600</v>
       </c>
       <c r="G72" s="3">
         <v>-13600</v>
       </c>
       <c r="H72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-13300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
-        <v>200</v>
-      </c>
       <c r="H76" s="3">
+        <v>200</v>
+      </c>
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-600</v>
       </c>
       <c r="N81" s="3">
         <v>-600</v>
       </c>
       <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4639,7 +4838,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4657,13 +4856,13 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>300</v>
       </c>
       <c r="F89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
+        <v>200</v>
+      </c>
+      <c r="V89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5083,14 +5304,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
@@ -5098,8 +5319,8 @@
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5108,16 +5329,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5252,19 +5482,19 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
@@ -5285,7 +5515,7 @@
         <v>-200</v>
       </c>
       <c r="S94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T94" s="3">
         <v>-300</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,19 +5807,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5585,34 +5831,37 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-300</v>
       </c>
       <c r="O102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>1200</v>
@@ -771,90 +775,93 @@
         <v>1200</v>
       </c>
       <c r="H8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
         <v>900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>800</v>
       </c>
       <c r="J8" s="3">
         <v>800</v>
       </c>
       <c r="K8" s="3">
+        <v>800</v>
+      </c>
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>700</v>
       </c>
       <c r="O8" s="3">
         <v>700</v>
       </c>
       <c r="P8" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Q8" s="3">
         <v>900</v>
       </c>
       <c r="R8" s="3">
+        <v>900</v>
+      </c>
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
+        <v>400</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
-        <v>200</v>
-      </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
@@ -866,81 +873,87 @@
         <v>300</v>
       </c>
       <c r="S9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
-        <v>200</v>
-      </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>800</v>
       </c>
       <c r="G10" s="3">
         <v>800</v>
       </c>
       <c r="H10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I10" s="3">
         <v>600</v>
       </c>
       <c r="J10" s="3">
+        <v>600</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>600</v>
       </c>
       <c r="Q10" s="3">
         <v>600</v>
       </c>
       <c r="R10" s="3">
+        <v>600</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>500</v>
       </c>
       <c r="U10" s="3">
         <v>500</v>
       </c>
       <c r="V10" s="3">
+        <v>500</v>
+      </c>
+      <c r="W10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1002,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1011,7 +1025,7 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,19 +1104,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1107,11 +1127,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1119,38 +1139,41 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1193,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1188,13 +1211,13 @@
         <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,105 +1258,109 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1100</v>
       </c>
       <c r="G17" s="3">
         <v>1100</v>
       </c>
       <c r="H17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1500</v>
       </c>
       <c r="M17" s="3">
         <v>1500</v>
       </c>
       <c r="N17" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="O17" s="3">
         <v>1300</v>
       </c>
       <c r="P17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-600</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
@@ -1339,25 +1369,28 @@
         <v>-600</v>
       </c>
       <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1422,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-200</v>
       </c>
       <c r="U20" s="3">
         <v>-200</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>300</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>200</v>
-      </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
       <c r="H21" s="3">
+        <v>200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1546,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,61 +1618,64 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-600</v>
       </c>
       <c r="O23" s="3">
         <v>-600</v>
       </c>
       <c r="P23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1657,12 +1703,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1813,64 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-600</v>
       </c>
       <c r="O26" s="3">
         <v>-600</v>
       </c>
       <c r="P26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-600</v>
       </c>
       <c r="O27" s="3">
         <v>-600</v>
       </c>
       <c r="P27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2166,28 +2236,31 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>200</v>
-      </c>
       <c r="S32" s="3">
+        <v>200</v>
+      </c>
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
-        <v>200</v>
-      </c>
       <c r="U32" s="3">
         <v>200</v>
       </c>
       <c r="V32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-600</v>
       </c>
       <c r="O33" s="3">
         <v>-600</v>
       </c>
       <c r="P33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-600</v>
       </c>
       <c r="O35" s="3">
         <v>-600</v>
       </c>
       <c r="P35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,61 +2583,64 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
-        <v>200</v>
-      </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,41 +2701,44 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>200</v>
-      </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
@@ -2653,7 +2746,7 @@
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,10 +2843,10 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -2756,20 +2855,20 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
@@ -2786,7 +2885,7 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2795,10 +2894,13 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2806,61 +2908,64 @@
         <v>800</v>
       </c>
       <c r="E46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F46" s="3">
         <v>700</v>
       </c>
       <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2951,10 +3059,10 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2983,55 +3091,58 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>800</v>
       </c>
       <c r="H49" s="3">
         <v>800</v>
       </c>
       <c r="I49" s="3">
+        <v>800</v>
+      </c>
+      <c r="J49" s="3">
         <v>700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>800</v>
       </c>
       <c r="L49" s="3">
         <v>800</v>
       </c>
       <c r="M49" s="3">
+        <v>800</v>
+      </c>
+      <c r="N49" s="3">
         <v>900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1200</v>
       </c>
       <c r="O49" s="3">
         <v>1200</v>
       </c>
       <c r="P49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1300</v>
       </c>
       <c r="S49" s="3">
         <v>1300</v>
@@ -3040,13 +3151,16 @@
         <v>1300</v>
       </c>
       <c r="U49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V49" s="3">
         <v>1200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,7 +3298,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,61 +3416,64 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2200</v>
       </c>
       <c r="U54" s="3">
         <v>2200</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,13 +3533,14 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -3421,7 +3552,7 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3430,7 +3561,7 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3442,31 +3573,34 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,158 +3608,164 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>200</v>
-      </c>
       <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
-        <v>200</v>
-      </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
       <c r="Q59" s="3">
+        <v>500</v>
+      </c>
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
@@ -3634,25 +3774,28 @@
         <v>600</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3702,36 +3845,39 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>600</v>
       </c>
       <c r="U61" s="3">
+        <v>600</v>
+      </c>
+      <c r="V61" s="3">
         <v>500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3740,19 +3886,19 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N62" s="3">
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
         <v>300</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
@@ -3766,8 +3912,8 @@
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,13 +4116,16 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E66" s="3">
         <v>1200</v>
@@ -3976,55 +4134,58 @@
         <v>1200</v>
       </c>
       <c r="G66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
       </c>
       <c r="Q66" s="3">
+        <v>600</v>
+      </c>
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-13600</v>
       </c>
       <c r="H72" s="3">
         <v>-13600</v>
       </c>
       <c r="I72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-13300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
-        <v>200</v>
-      </c>
       <c r="I76" s="3">
+        <v>200</v>
+      </c>
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-600</v>
       </c>
       <c r="O81" s="3">
         <v>-600</v>
       </c>
       <c r="P81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4841,7 +5040,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4859,13 +5058,13 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>300</v>
       </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>200</v>
+      </c>
+      <c r="W89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5307,14 +5528,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
@@ -5322,8 +5543,8 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5332,16 +5553,19 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5485,19 +5715,19 @@
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
@@ -5518,7 +5748,7 @@
         <v>-200</v>
       </c>
       <c r="T94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="U94" s="3">
         <v>-300</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5810,19 +6056,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5834,34 +6080,37 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-300</v>
       </c>
       <c r="P102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1200</v>
       </c>
       <c r="F8" s="3">
         <v>1200</v>
@@ -778,93 +782,96 @@
         <v>1200</v>
       </c>
       <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
         <v>900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>800</v>
       </c>
       <c r="K8" s="3">
         <v>800</v>
       </c>
       <c r="L8" s="3">
+        <v>800</v>
+      </c>
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>700</v>
       </c>
       <c r="P8" s="3">
         <v>700</v>
       </c>
       <c r="Q8" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="R8" s="3">
         <v>900</v>
       </c>
       <c r="S8" s="3">
+        <v>900</v>
+      </c>
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -876,84 +883,90 @@
         <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
-        <v>200</v>
-      </c>
       <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>800</v>
       </c>
       <c r="H10" s="3">
         <v>800</v>
       </c>
       <c r="I10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J10" s="3">
         <v>600</v>
       </c>
       <c r="K10" s="3">
+        <v>600</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>600</v>
       </c>
       <c r="R10" s="3">
         <v>600</v>
       </c>
       <c r="S10" s="3">
+        <v>600</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
-      </c>
-      <c r="U10" s="3">
-        <v>500</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
       </c>
       <c r="W10" s="3">
+        <v>500</v>
+      </c>
+      <c r="X10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1021,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1019,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1028,7 +1042,7 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,22 +1124,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1130,11 +1150,11 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1142,38 +1162,41 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1219,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -1214,13 +1237,13 @@
         <v>200</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>200</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,111 +1285,115 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1100</v>
       </c>
       <c r="H17" s="3">
         <v>1100</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1500</v>
       </c>
       <c r="N17" s="3">
         <v>1500</v>
       </c>
       <c r="O17" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="P17" s="3">
         <v>1300</v>
       </c>
       <c r="Q17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-600</v>
       </c>
       <c r="P18" s="3">
         <v>-600</v>
@@ -1372,25 +1402,28 @@
         <v>-600</v>
       </c>
       <c r="R18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1459,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-200</v>
       </c>
       <c r="V20" s="3">
         <v>-200</v>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
       </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
       <c r="H21" s="3">
         <v>200</v>
       </c>
       <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1589,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1609,78 +1649,84 @@
       <c r="W22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>200</v>
       </c>
       <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-600</v>
       </c>
       <c r="P23" s="3">
         <v>-600</v>
       </c>
       <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1706,12 +1752,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
       </c>
       <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-600</v>
       </c>
       <c r="P26" s="3">
         <v>-600</v>
       </c>
       <c r="Q26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
       </c>
       <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-600</v>
       </c>
       <c r="P27" s="3">
         <v>-600</v>
       </c>
       <c r="Q27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2239,93 +2309,99 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
-        <v>200</v>
-      </c>
       <c r="T32" s="3">
+        <v>200</v>
+      </c>
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
-        <v>200</v>
-      </c>
       <c r="V32" s="3">
         <v>200</v>
       </c>
       <c r="W32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
       </c>
       <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-600</v>
       </c>
       <c r="P33" s="3">
         <v>-600</v>
       </c>
       <c r="Q33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
       </c>
       <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-600</v>
       </c>
       <c r="P35" s="3">
         <v>-600</v>
       </c>
       <c r="Q35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
-        <v>200</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,44 +2794,47 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
-        <v>200</v>
-      </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
-        <v>200</v>
-      </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
@@ -2749,7 +2842,7 @@
         <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,10 +2945,10 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2858,20 +2957,20 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>200</v>
-      </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
@@ -2888,7 +2987,7 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2897,75 +2996,81 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
         <v>800</v>
       </c>
       <c r="F46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>700</v>
       </c>
       <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,19 +3134,22 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3062,10 +3170,10 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3094,58 +3202,61 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>800</v>
       </c>
       <c r="I49" s="3">
         <v>800</v>
       </c>
       <c r="J49" s="3">
+        <v>800</v>
+      </c>
+      <c r="K49" s="3">
         <v>700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>800</v>
       </c>
       <c r="M49" s="3">
         <v>800</v>
       </c>
       <c r="N49" s="3">
+        <v>800</v>
+      </c>
+      <c r="O49" s="3">
         <v>900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1200</v>
       </c>
       <c r="P49" s="3">
         <v>1200</v>
       </c>
       <c r="Q49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R49" s="3">
         <v>1100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1300</v>
       </c>
       <c r="T49" s="3">
         <v>1300</v>
@@ -3154,13 +3265,16 @@
         <v>1300</v>
       </c>
       <c r="V49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W49" s="3">
         <v>1200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,19 +3406,22 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,64 +3542,67 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1900</v>
-      </c>
-      <c r="U54" s="3">
-        <v>2200</v>
       </c>
       <c r="V54" s="3">
         <v>2200</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,7 +3674,7 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
@@ -3555,7 +3686,7 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3564,7 +3695,7 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3576,31 +3707,34 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,164 +3745,170 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>200</v>
-      </c>
       <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
-        <v>200</v>
-      </c>
-      <c r="W58" s="3" t="s">
+      <c r="W58" s="3">
+        <v>200</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
       <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
       <c r="R59" s="3">
+        <v>500</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>400</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
       </c>
       <c r="V59" s="3">
+        <v>400</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
@@ -3777,25 +3917,28 @@
         <v>600</v>
       </c>
       <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3848,39 +3991,42 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>600</v>
       </c>
       <c r="V61" s="3">
+        <v>600</v>
+      </c>
+      <c r="W61" s="3">
         <v>500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -3889,19 +4035,19 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
         <v>300</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
@@ -3915,8 +4061,8 @@
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,16 +4274,19 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>1200</v>
@@ -4137,55 +4295,58 @@
         <v>1200</v>
       </c>
       <c r="H66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
       </c>
       <c r="R66" s="3">
+        <v>600</v>
+      </c>
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-13600</v>
       </c>
       <c r="I72" s="3">
         <v>-13600</v>
       </c>
       <c r="J72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
-        <v>200</v>
-      </c>
       <c r="J76" s="3">
+        <v>200</v>
+      </c>
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
       </c>
       <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-600</v>
       </c>
       <c r="P81" s="3">
         <v>-600</v>
       </c>
       <c r="Q81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5043,7 +5242,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -5061,13 +5260,13 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>300</v>
       </c>
       <c r="H89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
+        <v>200</v>
+      </c>
+      <c r="X89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5531,14 +5752,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
@@ -5546,8 +5767,8 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5556,16 +5777,19 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,13 +5921,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -5718,19 +5948,19 @@
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
@@ -5751,7 +5981,7 @@
         <v>-200</v>
       </c>
       <c r="U94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="V94" s="3">
         <v>-300</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6059,19 +6305,19 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -6083,34 +6329,37 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-300</v>
       </c>
       <c r="Q102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TAPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,118 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1200</v>
       </c>
       <c r="G8" s="3">
         <v>1200</v>
@@ -785,96 +788,99 @@
         <v>1200</v>
       </c>
       <c r="J8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K8" s="3">
         <v>900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>800</v>
       </c>
       <c r="L8" s="3">
         <v>800</v>
       </c>
       <c r="M8" s="3">
+        <v>800</v>
+      </c>
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>700</v>
       </c>
       <c r="Q8" s="3">
         <v>700</v>
       </c>
       <c r="R8" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="S8" s="3">
         <v>900</v>
       </c>
       <c r="T8" s="3">
+        <v>900</v>
+      </c>
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>200</v>
-      </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
@@ -886,87 +892,93 @@
         <v>300</v>
       </c>
       <c r="U9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
-        <v>200</v>
-      </c>
       <c r="X9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>800</v>
       </c>
       <c r="I10" s="3">
         <v>800</v>
       </c>
       <c r="J10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K10" s="3">
         <v>600</v>
       </c>
       <c r="L10" s="3">
+        <v>600</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>600</v>
       </c>
       <c r="S10" s="3">
         <v>600</v>
       </c>
       <c r="T10" s="3">
+        <v>600</v>
+      </c>
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
-      </c>
-      <c r="V10" s="3">
-        <v>500</v>
       </c>
       <c r="W10" s="3">
         <v>500</v>
       </c>
       <c r="X10" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1037,7 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1036,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1045,7 +1058,7 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,25 +1143,28 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1153,11 +1172,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1165,38 +1184,41 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1244,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1240,13 +1262,13 @@
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,117 +1311,121 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1100</v>
       </c>
       <c r="I17" s="3">
         <v>1100</v>
       </c>
       <c r="J17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1500</v>
       </c>
       <c r="O17" s="3">
         <v>1500</v>
       </c>
       <c r="P17" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="Q17" s="3">
         <v>1300</v>
       </c>
       <c r="R17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-600</v>
       </c>
       <c r="Q18" s="3">
         <v>-600</v>
@@ -1405,25 +1434,28 @@
         <v>-600</v>
       </c>
       <c r="S18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,16 +1480,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1496,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-200</v>
       </c>
       <c r="W20" s="3">
         <v>-200</v>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>300</v>
       </c>
       <c r="F21" s="3">
         <v>300</v>
       </c>
       <c r="G21" s="3">
+        <v>300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>200</v>
-      </c>
       <c r="I21" s="3">
         <v>200</v>
       </c>
       <c r="J21" s="3">
+        <v>200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-400</v>
       </c>
       <c r="Q21" s="3">
         <v>-400</v>
       </c>
       <c r="R21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1652,85 +1691,91 @@
       <c r="X22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
-        <v>200</v>
-      </c>
       <c r="F23" s="3">
         <v>200</v>
       </c>
       <c r="G23" s="3">
+        <v>200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-600</v>
       </c>
       <c r="Q23" s="3">
         <v>-600</v>
       </c>
       <c r="R23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1755,12 +1800,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
-        <v>200</v>
-      </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
+        <v>200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-600</v>
       </c>
       <c r="Q26" s="3">
         <v>-600</v>
       </c>
       <c r="R26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
-        <v>200</v>
-      </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
+        <v>200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-600</v>
       </c>
       <c r="Q27" s="3">
         <v>-600</v>
       </c>
       <c r="R27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,17 +2330,20 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2312,96 +2381,102 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
-        <v>200</v>
-      </c>
       <c r="U32" s="3">
+        <v>200</v>
+      </c>
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
-        <v>200</v>
-      </c>
       <c r="W32" s="3">
         <v>200</v>
       </c>
       <c r="X32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
-        <v>200</v>
-      </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
+        <v>200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-600</v>
       </c>
       <c r="Q33" s="3">
         <v>-600</v>
       </c>
       <c r="R33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
-        <v>200</v>
-      </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
+        <v>200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-600</v>
       </c>
       <c r="Q35" s="3">
         <v>-600</v>
       </c>
       <c r="R35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3">
-        <v>200</v>
-      </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,47 +2886,50 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
       <c r="L43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
-        <v>200</v>
-      </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
@@ -2845,7 +2937,7 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,13 +3028,16 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2948,10 +3046,10 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2960,20 +3058,20 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>200</v>
-      </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
@@ -2990,7 +3088,7 @@
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -2999,78 +3097,84 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>800</v>
       </c>
       <c r="F46" s="3">
         <v>800</v>
       </c>
       <c r="G46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H46" s="3">
         <v>700</v>
       </c>
       <c r="I46" s="3">
+        <v>700</v>
+      </c>
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,13 +3253,13 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3173,10 +3280,10 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,52 +3324,52 @@
         <v>1200</v>
       </c>
       <c r="E49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>800</v>
       </c>
       <c r="J49" s="3">
         <v>800</v>
       </c>
       <c r="K49" s="3">
+        <v>800</v>
+      </c>
+      <c r="L49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>800</v>
       </c>
       <c r="N49" s="3">
         <v>800</v>
       </c>
       <c r="O49" s="3">
+        <v>800</v>
+      </c>
+      <c r="P49" s="3">
         <v>900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1200</v>
       </c>
       <c r="Q49" s="3">
         <v>1200</v>
       </c>
       <c r="R49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S49" s="3">
         <v>1100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1300</v>
       </c>
       <c r="U49" s="3">
         <v>1300</v>
@@ -3268,13 +3378,16 @@
         <v>1300</v>
       </c>
       <c r="W49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X49" s="3">
         <v>1200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,22 +3525,25 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,67 +3667,70 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1900</v>
-      </c>
-      <c r="V54" s="3">
-        <v>2200</v>
       </c>
       <c r="W54" s="3">
         <v>2200</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,19 +3794,20 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
@@ -3689,7 +3819,7 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3698,7 +3828,7 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3710,31 +3840,34 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,170 +3881,176 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
       <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>1300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
-        <v>200</v>
-      </c>
-      <c r="X58" s="3" t="s">
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
       <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
-      </c>
-      <c r="U59" s="3">
-        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
       </c>
       <c r="W59" s="3">
+        <v>400</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
@@ -3920,25 +4059,28 @@
         <v>600</v>
       </c>
       <c r="S60" s="3">
+        <v>600</v>
+      </c>
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3994,19 +4136,22 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>600</v>
       </c>
       <c r="W61" s="3">
+        <v>600</v>
+      </c>
+      <c r="X61" s="3">
         <v>500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,22 +4159,22 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -4038,19 +4183,19 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>300</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>10</v>
@@ -4064,8 +4209,8 @@
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,19 +4431,22 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1200</v>
@@ -4298,55 +4455,58 @@
         <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>600</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
       </c>
       <c r="S66" s="3">
+        <v>600</v>
+      </c>
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-13600</v>
       </c>
       <c r="J72" s="3">
         <v>-13600</v>
       </c>
       <c r="K72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-13300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
-        <v>200</v>
-      </c>
       <c r="K76" s="3">
+        <v>200</v>
+      </c>
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
-        <v>200</v>
-      </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
+        <v>200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-600</v>
       </c>
       <c r="Q81" s="3">
         <v>-600</v>
       </c>
       <c r="R81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5245,7 +5443,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -5263,13 +5461,13 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>300</v>
       </c>
       <c r="I89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
       <c r="W89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,31 +5939,32 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5755,14 +5975,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>10</v>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5780,16 +6000,19 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,16 +6150,19 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -5951,19 +6180,19 @@
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
@@ -5984,7 +6213,7 @@
         <v>-200</v>
       </c>
       <c r="V94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="W94" s="3">
         <v>-300</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6308,19 +6553,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6332,34 +6577,37 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>-300</v>
       </c>
       <c r="R102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TAPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,132 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1200</v>
       </c>
       <c r="I8" s="3">
         <v>1200</v>
@@ -791,102 +799,108 @@
         <v>1200</v>
       </c>
       <c r="K8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1300</v>
       </c>
       <c r="O8" s="3">
         <v>800</v>
       </c>
       <c r="P8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>800</v>
+      </c>
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
-      </c>
-      <c r="U8" s="3">
-        <v>800</v>
-      </c>
-      <c r="V8" s="3">
-        <v>600</v>
       </c>
       <c r="W8" s="3">
         <v>800</v>
       </c>
       <c r="X8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>500</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
-        <v>300</v>
-      </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
@@ -895,7 +909,7 @@
         <v>300</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W9" s="3">
         <v>300</v>
@@ -904,24 +918,30 @@
         <v>200</v>
       </c>
       <c r="Y9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>800</v>
       </c>
       <c r="H10" s="3">
         <v>900</v>
@@ -930,25 +950,25 @@
         <v>800</v>
       </c>
       <c r="J10" s="3">
+        <v>900</v>
+      </c>
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>800</v>
+      </c>
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>900</v>
       </c>
       <c r="O10" s="3">
         <v>500</v>
       </c>
       <c r="P10" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Q10" s="3">
         <v>500</v>
@@ -957,28 +977,34 @@
         <v>400</v>
       </c>
       <c r="S10" s="3">
+        <v>500</v>
+      </c>
+      <c r="T10" s="3">
+        <v>400</v>
+      </c>
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
-      </c>
-      <c r="U10" s="3">
-        <v>500</v>
-      </c>
-      <c r="V10" s="3">
-        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>500</v>
       </c>
       <c r="X10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,13 +1030,15 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1040,10 +1068,10 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1052,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,79 +1180,91 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>100</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>800</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1247,10 +1293,10 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
@@ -1265,16 +1311,16 @@
         <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>200</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1700</v>
       </c>
       <c r="W17" s="3">
         <v>1000</v>
       </c>
       <c r="X17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-600</v>
       </c>
       <c r="S18" s="3">
         <v>-600</v>
       </c>
       <c r="T18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-1100</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,22 +1547,24 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1532,107 +1600,119 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-600</v>
       </c>
       <c r="W20" s="3">
         <v>-200</v>
       </c>
       <c r="X20" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="Y20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>200</v>
-      </c>
       <c r="K21" s="3">
+        <v>200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-1500</v>
       </c>
       <c r="W21" s="3">
         <v>-200</v>
       </c>
       <c r="X21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1674,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1694,94 +1774,106 @@
       <c r="Y22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1803,15 +1895,15 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
       <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
       <c r="H27" s="3">
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,23 +2467,29 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2384,99 +2524,111 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
-        <v>200</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
+        <v>200</v>
+      </c>
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
-        <v>200</v>
-      </c>
-      <c r="X32" s="3">
-        <v>200</v>
-      </c>
       <c r="Y32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
       <c r="H33" s="3">
+        <v>200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
       <c r="H35" s="3">
+        <v>200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
-        <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,61 +3069,67 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>500</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>200</v>
-      </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,28 +3238,28 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -3070,14 +3268,14 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
@@ -3091,90 +3289,102 @@
         <v>200</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3182,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3244,28 +3454,34 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3283,13 +3499,13 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3315,79 +3531,91 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>500</v>
+      </c>
+      <c r="K49" s="3">
+        <v>900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>800</v>
+      </c>
+      <c r="M49" s="3">
+        <v>800</v>
+      </c>
+      <c r="N49" s="3">
+        <v>700</v>
+      </c>
+      <c r="O49" s="3">
+        <v>900</v>
+      </c>
+      <c r="P49" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>800</v>
+      </c>
+      <c r="R49" s="3">
+        <v>900</v>
+      </c>
+      <c r="S49" s="3">
         <v>1200</v>
       </c>
-      <c r="F49" s="3">
-        <v>800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>900</v>
-      </c>
-      <c r="N49" s="3">
-        <v>800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>800</v>
-      </c>
-      <c r="P49" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>1200</v>
       </c>
-      <c r="R49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="V49" s="3">
-        <v>1300</v>
       </c>
       <c r="W49" s="3">
         <v>1300</v>
       </c>
       <c r="X49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,28 +3762,34 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1900</v>
-      </c>
-      <c r="W54" s="3">
-        <v>2200</v>
-      </c>
-      <c r="X54" s="3">
-        <v>2200</v>
       </c>
       <c r="Y54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,25 +4055,27 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -3822,19 +4084,19 @@
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3843,39 +4105,45 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3884,203 +4152,221 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
-        <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>1300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>400</v>
       </c>
-      <c r="X58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
       <c r="V59" s="3">
+        <v>600</v>
+      </c>
+      <c r="W59" s="3">
+        <v>500</v>
+      </c>
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>600</v>
       </c>
       <c r="T60" s="3">
+        <v>600</v>
+      </c>
+      <c r="U60" s="3">
+        <v>600</v>
+      </c>
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4139,69 +4425,75 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
       </c>
       <c r="N62" s="3">
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
         <v>300</v>
-      </c>
-      <c r="O62" s="3">
-        <v>300</v>
-      </c>
-      <c r="P62" s="3">
-        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>10</v>
+      <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>300</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>10</v>
@@ -4212,17 +4504,23 @@
       <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
       </c>
       <c r="I66" s="3">
         <v>1200</v>
       </c>
       <c r="J66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1500</v>
       </c>
       <c r="X66" s="3">
         <v>1100</v>
       </c>
       <c r="Y66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-8000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-7200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>200</v>
       </c>
       <c r="L76" s="3">
         <v>300</v>
       </c>
       <c r="M76" s="3">
+        <v>200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>300</v>
+      </c>
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
       <c r="H81" s="3">
+        <v>200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5446,10 +5844,10 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -5464,16 +5862,16 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>300</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>200</v>
-      </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>200</v>
+      </c>
+      <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
-      <c r="X89" s="3">
-        <v>200</v>
-      </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,22 +6380,24 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -5966,11 +6408,11 @@
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5978,8 +6420,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5987,32 +6429,38 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>10</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,22 +6607,28 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -6183,7 +6643,7 @@
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
@@ -6192,13 +6652,13 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
@@ -6216,16 +6676,22 @@
         <v>-200</v>
       </c>
       <c r="W94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Y94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6556,22 +7048,22 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6580,34 +7072,40 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,25 +7175,31 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
@@ -6707,45 +7211,51 @@
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-100</v>
-      </c>
       <c r="V102" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>-100</v>
       </c>
       <c r="X102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>TAPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,139 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1700</v>
       </c>
       <c r="F8" s="3">
         <v>1700</v>
       </c>
       <c r="G8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1200</v>
       </c>
       <c r="J8" s="3">
         <v>1200</v>
@@ -805,52 +809,55 @@
         <v>1200</v>
       </c>
       <c r="M8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N8" s="3">
         <v>900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>800</v>
       </c>
       <c r="O8" s="3">
         <v>800</v>
       </c>
       <c r="P8" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
-      </c>
-      <c r="S8" s="3">
-        <v>700</v>
       </c>
       <c r="T8" s="3">
         <v>700</v>
       </c>
       <c r="U8" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="V8" s="3">
         <v>900</v>
       </c>
       <c r="W8" s="3">
+        <v>900</v>
+      </c>
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,52 +865,52 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>400</v>
       </c>
       <c r="L9" s="3">
         <v>400</v>
       </c>
       <c r="M9" s="3">
+        <v>400</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
-        <v>200</v>
-      </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
@@ -915,96 +922,102 @@
         <v>300</v>
       </c>
       <c r="X9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Z9" s="3">
-        <v>200</v>
-      </c>
       <c r="AA9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>800</v>
       </c>
       <c r="L10" s="3">
         <v>800</v>
       </c>
       <c r="M10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N10" s="3">
         <v>600</v>
       </c>
       <c r="O10" s="3">
+        <v>600</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
-      </c>
-      <c r="U10" s="3">
-        <v>600</v>
       </c>
       <c r="V10" s="3">
         <v>600</v>
       </c>
       <c r="W10" s="3">
+        <v>600</v>
+      </c>
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>500</v>
       </c>
       <c r="Z10" s="3">
         <v>500</v>
       </c>
       <c r="AA10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1074,7 +1088,7 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1086,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1095,7 +1109,7 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,34 +1203,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1221,11 +1241,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>100</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1233,38 +1253,41 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +1322,7 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
@@ -1317,13 +1340,13 @@
         <v>200</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
       <c r="V15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W15" s="3">
         <v>200</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,135 +1392,139 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1100</v>
       </c>
       <c r="L17" s="3">
         <v>1100</v>
       </c>
       <c r="M17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1500</v>
       </c>
       <c r="R17" s="3">
         <v>1500</v>
       </c>
       <c r="S17" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T17" s="3">
         <v>1300</v>
       </c>
       <c r="U17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-600</v>
       </c>
       <c r="T18" s="3">
         <v>-600</v>
@@ -1503,25 +1533,28 @@
         <v>-600</v>
       </c>
       <c r="V18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,25 +1582,26 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1606,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-200</v>
       </c>
       <c r="Z20" s="3">
         <v>-200</v>
@@ -1626,96 +1660,102 @@
       <c r="AA20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>300</v>
       </c>
       <c r="I21" s="3">
         <v>300</v>
       </c>
       <c r="J21" s="3">
+        <v>300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
-        <v>200</v>
-      </c>
       <c r="L21" s="3">
         <v>200</v>
       </c>
       <c r="M21" s="3">
+        <v>200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-400</v>
       </c>
       <c r="U21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1760,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
-        <v>200</v>
-      </c>
       <c r="I23" s="3">
         <v>200</v>
       </c>
       <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-600</v>
       </c>
       <c r="T23" s="3">
         <v>-600</v>
       </c>
       <c r="U23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,14 +1915,14 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1901,12 +1947,12 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>200</v>
-      </c>
       <c r="I26" s="3">
         <v>200</v>
       </c>
       <c r="J26" s="3">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-600</v>
       </c>
       <c r="T26" s="3">
         <v>-600</v>
       </c>
       <c r="U26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>200</v>
-      </c>
       <c r="I27" s="3">
         <v>200</v>
       </c>
       <c r="J27" s="3">
+        <v>200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-600</v>
       </c>
       <c r="T27" s="3">
         <v>-600</v>
       </c>
       <c r="U27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,26 +2540,29 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2530,105 +2600,111 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
-        <v>200</v>
-      </c>
       <c r="X32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y32" s="3">
         <v>600</v>
       </c>
-      <c r="Y32" s="3">
-        <v>200</v>
-      </c>
       <c r="Z32" s="3">
         <v>200</v>
       </c>
       <c r="AA32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>200</v>
-      </c>
       <c r="I33" s="3">
         <v>200</v>
       </c>
       <c r="J33" s="3">
+        <v>200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-600</v>
       </c>
       <c r="T33" s="3">
         <v>-600</v>
       </c>
       <c r="U33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>200</v>
-      </c>
       <c r="I35" s="3">
         <v>200</v>
       </c>
       <c r="J35" s="3">
+        <v>200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-600</v>
       </c>
       <c r="T35" s="3">
         <v>-600</v>
       </c>
       <c r="U35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,76 +3017,79 @@
         <v>600</v>
       </c>
       <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1600</v>
       </c>
-      <c r="V41" s="3">
-        <v>200</v>
-      </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,47 +3177,47 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
-        <v>200</v>
-      </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
-        <v>200</v>
-      </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
@@ -3132,7 +3225,7 @@
         <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3244,7 +3343,7 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -3253,10 +3352,10 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -3265,20 +3364,20 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
-        <v>200</v>
-      </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
@@ -3295,7 +3394,7 @@
         <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3304,98 +3403,104 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>800</v>
       </c>
       <c r="I46" s="3">
         <v>800</v>
       </c>
       <c r="J46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K46" s="3">
         <v>700</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,7 +3577,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -3478,13 +3586,13 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3505,10 +3613,10 @@
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3537,70 +3645,73 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>800</v>
       </c>
       <c r="M49" s="3">
         <v>800</v>
       </c>
       <c r="N49" s="3">
+        <v>800</v>
+      </c>
+      <c r="O49" s="3">
         <v>700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>800</v>
       </c>
       <c r="Q49" s="3">
         <v>800</v>
       </c>
       <c r="R49" s="3">
+        <v>800</v>
+      </c>
+      <c r="S49" s="3">
         <v>900</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1200</v>
       </c>
       <c r="T49" s="3">
         <v>1200</v>
       </c>
       <c r="U49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V49" s="3">
         <v>1100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1300</v>
       </c>
       <c r="X49" s="3">
         <v>1300</v>
@@ -3609,13 +3720,16 @@
         <v>1300</v>
       </c>
       <c r="Z49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA49" s="3">
         <v>1200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3780,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,76 +4045,79 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3900</v>
       </c>
       <c r="F54" s="3">
         <v>3900</v>
       </c>
       <c r="G54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1900</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>2200</v>
       </c>
       <c r="Z54" s="3">
         <v>2200</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,28 +4187,29 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -4090,7 +4221,7 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -4099,7 +4230,7 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -4111,31 +4242,34 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,8 +4279,8 @@
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4158,188 +4292,194 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>200</v>
-      </c>
       <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1000</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>400</v>
       </c>
-      <c r="Z58" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA58" s="3" t="s">
+      <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1500</v>
       </c>
       <c r="F59" s="3">
         <v>1500</v>
       </c>
       <c r="G59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
       <c r="V59" s="3">
+        <v>500</v>
+      </c>
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
-      </c>
-      <c r="X59" s="3">
-        <v>400</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
       </c>
       <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="AA59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
@@ -4348,25 +4488,28 @@
         <v>600</v>
       </c>
       <c r="V60" s="3">
+        <v>600</v>
+      </c>
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4431,19 +4574,22 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>600</v>
       </c>
       <c r="Z61" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA61" s="3">
         <v>500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4454,28 +4600,28 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
@@ -4484,19 +4630,19 @@
         <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S62" s="3">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
         <v>300</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>10</v>
@@ -4510,8 +4656,8 @@
       <c r="X62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,28 +4905,31 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1200</v>
@@ -4780,55 +4938,58 @@
         <v>1200</v>
       </c>
       <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>600</v>
       </c>
       <c r="V66" s="3">
+        <v>600</v>
+      </c>
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-13600</v>
       </c>
       <c r="M72" s="3">
         <v>-13600</v>
       </c>
       <c r="N72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="O72" s="3">
         <v>-13300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
-        <v>200</v>
-      </c>
       <c r="N76" s="3">
+        <v>200</v>
+      </c>
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>200</v>
-      </c>
       <c r="I81" s="3">
         <v>200</v>
       </c>
       <c r="J81" s="3">
+        <v>200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-600</v>
       </c>
       <c r="T81" s="3">
         <v>-600</v>
       </c>
       <c r="U81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5850,7 +6049,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5868,13 +6067,13 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,76 +6502,79 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>300</v>
       </c>
       <c r="L89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
       <c r="Z89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6393,14 +6614,14 @@
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
@@ -6414,8 +6635,8 @@
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6426,14 +6647,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>10</v>
@@ -6441,8 +6662,8 @@
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6451,16 +6672,19 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,25 +6840,28 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
@@ -6649,19 +6879,19 @@
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-200</v>
@@ -6682,7 +6912,7 @@
         <v>-200</v>
       </c>
       <c r="Y94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Z94" s="3">
         <v>-300</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7054,19 +7300,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -7078,34 +7324,37 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>-300</v>
       </c>
       <c r="U102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>TAPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1700</v>
       </c>
       <c r="G8" s="3">
         <v>1700</v>
       </c>
       <c r="H8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
@@ -812,108 +815,111 @@
         <v>1200</v>
       </c>
       <c r="N8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O8" s="3">
         <v>900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>800</v>
       </c>
       <c r="P8" s="3">
         <v>800</v>
       </c>
       <c r="Q8" s="3">
+        <v>800</v>
+      </c>
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
-      </c>
-      <c r="T8" s="3">
-        <v>700</v>
       </c>
       <c r="U8" s="3">
         <v>700</v>
       </c>
       <c r="V8" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="W8" s="3">
         <v>900</v>
       </c>
       <c r="X8" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y8" s="3">
         <v>800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>400</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
-        <v>200</v>
-      </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>300</v>
@@ -925,19 +931,22 @@
         <v>300</v>
       </c>
       <c r="Y9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
-        <v>200</v>
-      </c>
       <c r="AB9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,79 +954,82 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>800</v>
       </c>
       <c r="M10" s="3">
         <v>800</v>
       </c>
       <c r="N10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O10" s="3">
         <v>600</v>
       </c>
       <c r="P10" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
-      </c>
-      <c r="V10" s="3">
-        <v>600</v>
       </c>
       <c r="W10" s="3">
         <v>600</v>
       </c>
       <c r="X10" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>500</v>
       </c>
       <c r="AA10" s="3">
         <v>500</v>
       </c>
       <c r="AB10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1091,7 +1104,7 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1103,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1112,7 +1125,7 @@
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,37 +1222,40 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1244,11 +1263,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1256,38 +1275,41 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>800</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,7 +1347,7 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
@@ -1343,13 +1365,13 @@
         <v>200</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
       </c>
       <c r="W15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X15" s="3">
         <v>200</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,141 +1418,145 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
       </c>
       <c r="M17" s="3">
         <v>1100</v>
       </c>
       <c r="N17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1500</v>
       </c>
       <c r="S17" s="3">
         <v>1500</v>
       </c>
       <c r="T17" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="U17" s="3">
         <v>1300</v>
       </c>
       <c r="V17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-600</v>
       </c>
       <c r="U18" s="3">
         <v>-600</v>
@@ -1536,25 +1565,28 @@
         <v>-600</v>
       </c>
       <c r="W18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,28 +1615,29 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1643,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-200</v>
       </c>
       <c r="AA20" s="3">
         <v>-200</v>
@@ -1663,93 +1696,99 @@
       <c r="AB20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>-500</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>300</v>
       </c>
       <c r="J21" s="3">
         <v>300</v>
       </c>
       <c r="K21" s="3">
+        <v>300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>200</v>
-      </c>
       <c r="M21" s="3">
         <v>200</v>
       </c>
       <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-400</v>
       </c>
       <c r="U21" s="3">
         <v>-400</v>
       </c>
       <c r="V21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
@@ -1757,8 +1796,8 @@
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1803,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
@@ -1823,88 +1862,94 @@
       <c r="AB22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
-        <v>200</v>
-      </c>
       <c r="J23" s="3">
         <v>200</v>
       </c>
       <c r="K23" s="3">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-600</v>
       </c>
       <c r="U23" s="3">
         <v>-600</v>
       </c>
       <c r="V23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1918,14 +1963,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1950,12 +1995,12 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
-        <v>200</v>
-      </c>
       <c r="J26" s="3">
         <v>200</v>
       </c>
       <c r="K26" s="3">
+        <v>200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-600</v>
       </c>
       <c r="U26" s="3">
         <v>-600</v>
       </c>
       <c r="V26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
-        <v>200</v>
-      </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
       <c r="K27" s="3">
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-600</v>
       </c>
       <c r="U27" s="3">
         <v>-600</v>
       </c>
       <c r="V27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,29 +2609,32 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2603,108 +2672,114 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
-        <v>200</v>
-      </c>
       <c r="Y32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z32" s="3">
         <v>600</v>
       </c>
-      <c r="Z32" s="3">
-        <v>200</v>
-      </c>
       <c r="AA32" s="3">
         <v>200</v>
       </c>
       <c r="AB32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
-        <v>200</v>
-      </c>
       <c r="J33" s="3">
         <v>200</v>
       </c>
       <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-600</v>
       </c>
       <c r="U33" s="3">
         <v>-600</v>
       </c>
       <c r="V33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
-        <v>200</v>
-      </c>
       <c r="J35" s="3">
         <v>200</v>
       </c>
       <c r="K35" s="3">
+        <v>200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-600</v>
       </c>
       <c r="U35" s="3">
         <v>-600</v>
       </c>
       <c r="V35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>600</v>
       </c>
       <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1600</v>
       </c>
-      <c r="W41" s="3">
-        <v>200</v>
-      </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3180,47 +3272,47 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
-        <v>200</v>
-      </c>
       <c r="P43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
-        <v>200</v>
-      </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
@@ -3228,7 +3320,7 @@
         <v>200</v>
       </c>
       <c r="V43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3346,7 +3444,7 @@
         <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -3355,10 +3453,10 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -3367,20 +3465,20 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
-        <v>200</v>
-      </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
@@ -3397,7 +3495,7 @@
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3406,104 +3504,110 @@
         <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>800</v>
       </c>
       <c r="J46" s="3">
         <v>800</v>
       </c>
       <c r="K46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L46" s="3">
         <v>700</v>
       </c>
       <c r="M46" s="3">
+        <v>700</v>
+      </c>
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3580,7 +3687,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -3589,13 +3696,13 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3616,10 +3723,10 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3648,73 +3755,76 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>800</v>
       </c>
       <c r="N49" s="3">
         <v>800</v>
       </c>
       <c r="O49" s="3">
+        <v>800</v>
+      </c>
+      <c r="P49" s="3">
         <v>700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>800</v>
       </c>
       <c r="R49" s="3">
         <v>800</v>
       </c>
       <c r="S49" s="3">
+        <v>800</v>
+      </c>
+      <c r="T49" s="3">
         <v>900</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1200</v>
       </c>
       <c r="U49" s="3">
         <v>1200</v>
       </c>
       <c r="V49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W49" s="3">
         <v>1100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>1300</v>
       </c>
       <c r="Y49" s="3">
         <v>1300</v>
@@ -3723,13 +3833,16 @@
         <v>1300</v>
       </c>
       <c r="AA49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB49" s="3">
         <v>1200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3903,19 +4022,19 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,79 +4170,82 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3900</v>
       </c>
       <c r="G54" s="3">
         <v>3900</v>
       </c>
       <c r="H54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1900</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>2200</v>
       </c>
       <c r="AA54" s="3">
         <v>2200</v>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,31 +4317,32 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -4224,7 +4354,7 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -4233,7 +4363,7 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -4245,42 +4375,45 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
       </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4295,61 +4428,64 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
-        <v>200</v>
-      </c>
       <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>1300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>400</v>
       </c>
-      <c r="AA58" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,132 +4493,135 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1500</v>
       </c>
       <c r="G59" s="3">
         <v>1500</v>
       </c>
       <c r="H59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
       </c>
       <c r="W59" s="3">
+        <v>500</v>
+      </c>
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>400</v>
       </c>
       <c r="Z59" s="3">
         <v>400</v>
       </c>
       <c r="AA59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
-      <c r="AB59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
@@ -4491,25 +4630,28 @@
         <v>600</v>
       </c>
       <c r="W60" s="3">
+        <v>600</v>
+      </c>
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4577,19 +4719,22 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>600</v>
       </c>
       <c r="AA61" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB61" s="3">
         <v>500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4603,28 +4748,28 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -4633,19 +4778,19 @@
         <v>200</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R62" s="3">
         <v>300</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T62" s="3">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
         <v>300</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>10</v>
@@ -4659,8 +4804,8 @@
       <c r="Y62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,31 +5062,34 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1200</v>
@@ -4941,55 +5098,58 @@
         <v>1200</v>
       </c>
       <c r="M66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>600</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
       </c>
       <c r="W66" s="3">
+        <v>600</v>
+      </c>
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-13600</v>
       </c>
       <c r="N72" s="3">
         <v>-13600</v>
       </c>
       <c r="O72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-13300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
-        <v>200</v>
-      </c>
       <c r="O76" s="3">
+        <v>200</v>
+      </c>
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
-        <v>200</v>
-      </c>
       <c r="J81" s="3">
         <v>200</v>
       </c>
       <c r="K81" s="3">
+        <v>200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-600</v>
       </c>
       <c r="U81" s="3">
         <v>-600</v>
       </c>
       <c r="V81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6052,7 +6250,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -6070,13 +6268,13 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>300</v>
       </c>
       <c r="M89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>100</v>
-      </c>
       <c r="AA89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6617,14 +6837,14 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -6638,8 +6858,8 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6650,14 +6870,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>10</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>10</v>
@@ -6665,8 +6885,8 @@
       <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6675,16 +6895,19 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,28 +7069,31 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -6882,19 +7111,19 @@
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
@@ -6915,7 +7144,7 @@
         <v>-200</v>
       </c>
       <c r="Z94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AA94" s="3">
         <v>-300</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7303,19 +7548,19 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7327,34 +7572,37 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1400</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>-300</v>
       </c>
       <c r="V102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TAPM</t>
   </si>
@@ -6828,26 +6828,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>-200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TAPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,159 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1200</v>
       </c>
       <c r="M8" s="3">
         <v>1200</v>
@@ -818,52 +826,58 @@
         <v>1200</v>
       </c>
       <c r="O8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>800</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1300</v>
       </c>
       <c r="S8" s="3">
         <v>800</v>
       </c>
       <c r="T8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U8" s="3">
+        <v>800</v>
+      </c>
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>900</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>600</v>
       </c>
       <c r="AA8" s="3">
         <v>800</v>
       </c>
       <c r="AB8" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD8" s="3">
         <v>700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -871,61 +885,61 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>500</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
-        <v>300</v>
-      </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
@@ -934,7 +948,7 @@
         <v>300</v>
       </c>
       <c r="Z9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA9" s="3">
         <v>300</v>
@@ -943,36 +957,42 @@
         <v>200</v>
       </c>
       <c r="AC9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>800</v>
       </c>
       <c r="L10" s="3">
         <v>900</v>
@@ -981,25 +1001,25 @@
         <v>800</v>
       </c>
       <c r="N10" s="3">
+        <v>900</v>
+      </c>
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>900</v>
       </c>
       <c r="S10" s="3">
         <v>500</v>
       </c>
       <c r="T10" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="U10" s="3">
         <v>500</v>
@@ -1008,28 +1028,34 @@
         <v>400</v>
       </c>
       <c r="W10" s="3">
+        <v>500</v>
+      </c>
+      <c r="X10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>500</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>400</v>
       </c>
       <c r="AA10" s="3">
         <v>500</v>
       </c>
       <c r="AB10" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC10" s="3">
         <v>500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1107,10 +1135,10 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -1119,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,91 +1259,103 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>100</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>800</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1350,10 +1396,10 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
@@ -1368,16 +1414,16 @@
         <v>200</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z15" s="3">
         <v>200</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1700</v>
       </c>
       <c r="AA17" s="3">
         <v>1000</v>
       </c>
       <c r="AB17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>200</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-600</v>
       </c>
       <c r="W18" s="3">
         <v>-600</v>
       </c>
       <c r="X18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-1100</v>
       </c>
       <c r="AA18" s="3">
         <v>-200</v>
       </c>
       <c r="AB18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,34 +1682,36 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1679,111 +1747,123 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-600</v>
       </c>
       <c r="AA20" s="3">
         <v>-200</v>
       </c>
       <c r="AB20" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="AC20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
-        <v>200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
-      </c>
       <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-1500</v>
       </c>
       <c r="AA21" s="3">
         <v>-200</v>
       </c>
       <c r="AB21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1799,11 +1879,11 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1845,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z22" s="3">
         <v>100</v>
@@ -1865,91 +1945,103 @@
       <c r="AC22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
-        <v>200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>200</v>
-      </c>
       <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1966,17 +2058,17 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1998,15 +2090,15 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
-        <v>200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>200</v>
-      </c>
       <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
-        <v>200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>200</v>
-      </c>
       <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,35 +2746,41 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2675,111 +2815,123 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB32" s="3">
         <v>600</v>
       </c>
-      <c r="AA32" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>200</v>
-      </c>
       <c r="AC32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
-        <v>200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>200</v>
-      </c>
       <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
-        <v>200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>200</v>
-      </c>
       <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1600</v>
       </c>
-      <c r="X41" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
       <c r="Z41" s="3">
         <v>200</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC41" s="3">
         <v>500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,73 +3440,79 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>500</v>
       </c>
       <c r="O43" s="3">
         <v>400</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
-        <v>200</v>
-      </c>
-      <c r="U43" s="3">
-        <v>200</v>
-      </c>
       <c r="V43" s="3">
         <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
@@ -3343,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,16 +3618,22 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
@@ -3447,28 +3645,28 @@
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -3477,14 +3675,14 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
-        <v>200</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
-      </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
@@ -3498,102 +3696,114 @@
         <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
         <v>1300</v>
       </c>
       <c r="F46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3601,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3613,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3675,13 +3885,19 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -3690,25 +3906,25 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -3726,13 +3942,13 @@
         <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3758,91 +3974,103 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F49" s="3">
         <v>1300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>1300</v>
       </c>
       <c r="AA49" s="3">
         <v>1300</v>
       </c>
       <c r="AB49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD49" s="3">
         <v>1200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4025,22 +4265,22 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F54" s="3">
         <v>3000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1900</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>2200</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>2200</v>
       </c>
       <c r="AC54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,37 +4578,39 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -4357,19 +4619,19 @@
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -4378,31 +4640,37 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC57" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4431,227 +4699,245 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
-        <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1000</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>400</v>
       </c>
-      <c r="AB58" s="3">
-        <v>200</v>
-      </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AD58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
-      </c>
-      <c r="W59" s="3">
-        <v>500</v>
-      </c>
-      <c r="X59" s="3">
-        <v>600</v>
       </c>
       <c r="Y59" s="3">
         <v>500</v>
       </c>
       <c r="Z59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
-      <c r="AC59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>600</v>
-      </c>
-      <c r="V60" s="3">
-        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>600</v>
       </c>
       <c r="X60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z60" s="3">
         <v>2100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4722,24 +5008,30 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -4751,52 +5043,52 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
-      </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
       </c>
       <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
         <v>300</v>
-      </c>
-      <c r="S62" s="3">
-        <v>300</v>
-      </c>
-      <c r="T62" s="3">
-        <v>200</v>
       </c>
       <c r="U62" s="3">
         <v>300</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>10</v>
+      <c r="V62" s="3">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
+        <v>300</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>10</v>
@@ -4807,17 +5099,23 @@
       <c r="Z62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1200</v>
       </c>
       <c r="M66" s="3">
         <v>1200</v>
       </c>
       <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>1500</v>
       </c>
       <c r="AB66" s="3">
         <v>1100</v>
       </c>
       <c r="AC66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-12500</v>
       </c>
       <c r="G72" s="3">
         <v>-12400</v>
       </c>
       <c r="H72" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-13200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-11900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-10100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-9400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-8900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-4300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>200</v>
       </c>
       <c r="P76" s="3">
         <v>300</v>
       </c>
       <c r="Q76" s="3">
+        <v>200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>300</v>
+      </c>
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
-        <v>200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>200</v>
-      </c>
       <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6253,10 +6651,10 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -6271,16 +6669,16 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
-      </c>
-      <c r="J89" s="3">
-        <v>300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>300</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>100</v>
       </c>
       <c r="Z89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>200</v>
-      </c>
       <c r="AC89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,25 +7263,27 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -6849,11 +7291,11 @@
       <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
@@ -6861,11 +7303,11 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6873,8 +7315,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6882,32 +7324,38 @@
       <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>10</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="AC91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,34 +7526,40 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -7114,7 +7574,7 @@
         <v>-200</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
@@ -7123,13 +7583,13 @@
         <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>-200</v>
-      </c>
       <c r="U94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-200</v>
@@ -7147,16 +7607,22 @@
         <v>-200</v>
       </c>
       <c r="AA94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AB94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AC94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7551,22 +8043,22 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7575,34 +8067,40 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1400</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,37 +8182,43 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
@@ -7726,45 +8230,51 @@
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z102" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
         <v>-100</v>
       </c>
       <c r="AB102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TAPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>TAPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,162 +665,166 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1700</v>
       </c>
       <c r="J8" s="3">
         <v>1700</v>
       </c>
       <c r="K8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1200</v>
       </c>
       <c r="N8" s="3">
         <v>1200</v>
@@ -832,52 +836,55 @@
         <v>1200</v>
       </c>
       <c r="Q8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R8" s="3">
         <v>900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>800</v>
       </c>
       <c r="S8" s="3">
         <v>800</v>
       </c>
       <c r="T8" s="3">
+        <v>800</v>
+      </c>
+      <c r="U8" s="3">
         <v>1300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
-      </c>
-      <c r="W8" s="3">
-        <v>700</v>
       </c>
       <c r="X8" s="3">
         <v>700</v>
       </c>
       <c r="Y8" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Z8" s="3">
         <v>900</v>
       </c>
       <c r="AA8" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB8" s="3">
         <v>800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,58 +898,58 @@
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>400</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
       </c>
       <c r="Q9" s="3">
+        <v>400</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
-        <v>200</v>
-      </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
-        <v>200</v>
-      </c>
       <c r="W9" s="3">
         <v>200</v>
       </c>
       <c r="X9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
         <v>300</v>
@@ -954,108 +961,114 @@
         <v>300</v>
       </c>
       <c r="AB9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
-      <c r="AD9" s="3">
-        <v>200</v>
-      </c>
       <c r="AE9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>900</v>
       </c>
       <c r="G10" s="3">
         <v>900</v>
       </c>
       <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>800</v>
       </c>
       <c r="P10" s="3">
         <v>800</v>
       </c>
       <c r="Q10" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="R10" s="3">
         <v>600</v>
       </c>
       <c r="S10" s="3">
+        <v>600</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>600</v>
       </c>
       <c r="Z10" s="3">
         <v>600</v>
       </c>
       <c r="AA10" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB10" s="3">
         <v>500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>400</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>500</v>
       </c>
       <c r="AD10" s="3">
         <v>500</v>
       </c>
       <c r="AE10" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1141,7 +1155,7 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1153,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
         <v>100</v>
@@ -1162,7 +1176,7 @@
         <v>100</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,46 +1282,49 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1312,11 +1332,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>100</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1324,43 +1344,46 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>800</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1402,7 +1425,7 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>200</v>
@@ -1420,13 +1443,13 @@
         <v>200</v>
       </c>
       <c r="X15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y15" s="3">
         <v>100</v>
       </c>
       <c r="Z15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA15" s="3">
         <v>200</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1485,147 +1512,150 @@
         <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1100</v>
       </c>
       <c r="P17" s="3">
         <v>1100</v>
       </c>
       <c r="Q17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1500</v>
       </c>
       <c r="V17" s="3">
         <v>1500</v>
       </c>
       <c r="W17" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="X17" s="3">
         <v>1300</v>
       </c>
       <c r="Y17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-600</v>
       </c>
       <c r="X18" s="3">
         <v>-600</v>
@@ -1634,25 +1664,28 @@
         <v>-600</v>
       </c>
       <c r="Z18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,37 +1717,38 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1753,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-600</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>-200</v>
       </c>
       <c r="AD20" s="3">
         <v>-200</v>
@@ -1773,97 +1807,103 @@
       <c r="AE20" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>300</v>
       </c>
       <c r="M21" s="3">
         <v>300</v>
       </c>
       <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>200</v>
-      </c>
       <c r="P21" s="3">
         <v>200</v>
       </c>
       <c r="Q21" s="3">
+        <v>200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-400</v>
       </c>
       <c r="X21" s="3">
         <v>-400</v>
       </c>
       <c r="Y21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1885,8 +1925,8 @@
       <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1931,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="3">
         <v>100</v>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
-        <v>200</v>
-      </c>
       <c r="M23" s="3">
         <v>200</v>
       </c>
       <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-600</v>
       </c>
       <c r="X23" s="3">
         <v>-600</v>
       </c>
       <c r="Y23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2064,14 +2110,14 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -2096,12 +2142,12 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
-        <v>200</v>
-      </c>
       <c r="M26" s="3">
         <v>200</v>
       </c>
       <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-600</v>
       </c>
       <c r="X26" s="3">
         <v>-600</v>
       </c>
       <c r="Y26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
-        <v>200</v>
-      </c>
       <c r="M27" s="3">
         <v>200</v>
       </c>
       <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-600</v>
       </c>
       <c r="X27" s="3">
         <v>-600</v>
       </c>
       <c r="Y27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,38 +2819,41 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2821,117 +2891,123 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
-        <v>200</v>
-      </c>
       <c r="AB32" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC32" s="3">
         <v>600</v>
       </c>
-      <c r="AC32" s="3">
-        <v>200</v>
-      </c>
       <c r="AD32" s="3">
         <v>200</v>
       </c>
       <c r="AE32" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
-        <v>200</v>
-      </c>
       <c r="M33" s="3">
         <v>200</v>
       </c>
       <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-600</v>
       </c>
       <c r="X33" s="3">
         <v>-600</v>
       </c>
       <c r="Y33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
-        <v>200</v>
-      </c>
       <c r="M35" s="3">
         <v>200</v>
       </c>
       <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-600</v>
       </c>
       <c r="X35" s="3">
         <v>-600</v>
       </c>
       <c r="Y35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
+        <v>600</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1600</v>
       </c>
-      <c r="Z41" s="3">
-        <v>200</v>
-      </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD41" s="3">
         <v>500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3458,7 +3551,7 @@
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
@@ -3467,47 +3560,47 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
-        <v>200</v>
-      </c>
       <c r="S43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
-        <v>200</v>
-      </c>
       <c r="W43" s="3">
         <v>200</v>
       </c>
@@ -3515,7 +3608,7 @@
         <v>200</v>
       </c>
       <c r="Y43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z43" s="3">
         <v>300</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3636,7 +3735,7 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
@@ -3651,7 +3750,7 @@
         <v>400</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -3660,10 +3759,10 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -3672,20 +3771,20 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
-        <v>200</v>
-      </c>
       <c r="W45" s="3">
         <v>200</v>
       </c>
@@ -3702,7 +3801,7 @@
         <v>200</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC45" s="3">
         <v>100</v>
@@ -3711,10 +3810,13 @@
         <v>100</v>
       </c>
       <c r="AE45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3722,88 +3824,91 @@
         <v>1500</v>
       </c>
       <c r="E46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>800</v>
       </c>
       <c r="M46" s="3">
         <v>800</v>
       </c>
       <c r="N46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3817,16 +3922,16 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3900,7 +4008,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -3912,7 +4020,7 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -3921,13 +4029,13 @@
         <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3948,10 +4056,10 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3980,82 +4088,85 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>800</v>
       </c>
       <c r="Q49" s="3">
         <v>800</v>
       </c>
       <c r="R49" s="3">
+        <v>800</v>
+      </c>
+      <c r="S49" s="3">
         <v>700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>900</v>
-      </c>
-      <c r="T49" s="3">
-        <v>800</v>
       </c>
       <c r="U49" s="3">
         <v>800</v>
       </c>
       <c r="V49" s="3">
+        <v>800</v>
+      </c>
+      <c r="W49" s="3">
         <v>900</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1200</v>
       </c>
       <c r="X49" s="3">
         <v>1200</v>
       </c>
       <c r="Y49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>1300</v>
       </c>
       <c r="AB49" s="3">
         <v>1300</v>
@@ -4064,13 +4175,16 @@
         <v>1300</v>
       </c>
       <c r="AD49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE49" s="3">
         <v>1200</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4271,19 +4391,19 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,88 +4548,91 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3900</v>
       </c>
       <c r="J54" s="3">
         <v>3900</v>
       </c>
       <c r="K54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1900</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>2200</v>
       </c>
       <c r="AD54" s="3">
         <v>2200</v>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,40 +4710,41 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -4625,7 +4756,7 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -4634,7 +4765,7 @@
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -4646,31 +4777,34 @@
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC57" s="3">
         <v>100</v>
       </c>
       <c r="AD57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4705,61 +4839,64 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>200</v>
-      </c>
       <c r="R58" s="3">
-        <v>100</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1000</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>400</v>
       </c>
-      <c r="AD58" s="3">
-        <v>200</v>
-      </c>
-      <c r="AE58" s="3" t="s">
+      <c r="AE58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,88 +4904,91 @@
         <v>1500</v>
       </c>
       <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1200</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
         <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1500</v>
       </c>
       <c r="J59" s="3">
         <v>1500</v>
       </c>
       <c r="K59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
-      </c>
-      <c r="X59" s="3">
-        <v>500</v>
       </c>
       <c r="Y59" s="3">
         <v>500</v>
       </c>
       <c r="Z59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>400</v>
       </c>
       <c r="AC59" s="3">
         <v>400</v>
       </c>
       <c r="AD59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE59" s="3">
         <v>300</v>
       </c>
-      <c r="AE59" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4856,61 +4996,61 @@
         <v>1600</v>
       </c>
       <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
-      </c>
-      <c r="W60" s="3">
-        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>600</v>
@@ -4919,25 +5059,28 @@
         <v>600</v>
       </c>
       <c r="Z60" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA60" s="3">
         <v>2100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>600</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5014,19 +5157,22 @@
         <v>0</v>
       </c>
       <c r="AB61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>600</v>
       </c>
       <c r="AD61" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE61" s="3">
         <v>500</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5034,7 +5180,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -5049,28 +5195,28 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
@@ -5079,19 +5225,19 @@
         <v>200</v>
       </c>
       <c r="T62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U62" s="3">
         <v>300</v>
       </c>
       <c r="V62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W62" s="3">
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
         <v>300</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>10</v>
@@ -5105,8 +5251,8 @@
       <c r="AB62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC62" s="3">
-        <v>0</v>
+      <c r="AC62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AD62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,40 +5536,43 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1700</v>
       </c>
       <c r="F66" s="3">
         <v>1700</v>
       </c>
       <c r="G66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1200</v>
       </c>
       <c r="N66" s="3">
         <v>1200</v>
@@ -5423,55 +5581,58 @@
         <v>1200</v>
       </c>
       <c r="P66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
-      </c>
-      <c r="X66" s="3">
-        <v>600</v>
       </c>
       <c r="Y66" s="3">
         <v>600</v>
       </c>
       <c r="Z66" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA66" s="3">
         <v>2200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="E72" s="3">
         <v>-12700</v>
       </c>
       <c r="F72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-13600</v>
       </c>
       <c r="Q72" s="3">
         <v>-13600</v>
       </c>
       <c r="R72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="S72" s="3">
         <v>-13300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-6700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-4800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-4300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-3800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>200</v>
-      </c>
       <c r="R76" s="3">
+        <v>200</v>
+      </c>
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
-        <v>200</v>
-      </c>
       <c r="M81" s="3">
         <v>200</v>
       </c>
       <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-600</v>
       </c>
       <c r="X81" s="3">
         <v>-600</v>
       </c>
       <c r="Y81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,13 +6807,14 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -6657,7 +6856,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -6675,13 +6874,13 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
       </c>
       <c r="Z83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA83" s="3">
         <v>200</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7152,88 +7369,91 @@
         <v>300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>300</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>100</v>
-      </c>
       <c r="AD89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7274,7 +7495,7 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -7283,22 +7504,22 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
@@ -7309,8 +7530,8 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -7321,14 +7542,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>10</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>10</v>
@@ -7336,8 +7557,8 @@
       <c r="Y91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -7346,16 +7567,19 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,37 +7759,40 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
@@ -7580,19 +7810,19 @@
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>-200</v>
@@ -7613,7 +7843,7 @@
         <v>-200</v>
       </c>
       <c r="AC94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AD94" s="3">
         <v>-300</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8049,19 +8295,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -8073,34 +8319,37 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1400</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-100</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
         <v>-300</v>
       </c>
       <c r="Y102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z102" s="3">
         <v>1300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-100</v>
       </c>
     </row>
